--- a/ListasDatos/Ángel Martínez Noe Cristobal_2021.xlsx
+++ b/ListasDatos/Ángel Martínez Noe Cristobal_2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="782">
   <si>
     <t>NC</t>
   </si>
@@ -1212,6 +1212,9 @@
     <t>santilop493@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>griselserrano11218@gmail.com</t>
   </si>
   <si>
@@ -1314,6 +1317,9 @@
     <t>2722805311</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721633478</t>
   </si>
   <si>
@@ -1464,6 +1470,9 @@
     <t>AGUSTIN MARTINEZ CRISTOBAL</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>FERNANDO JAIR MALDONADO GONZÁLEZ</t>
   </si>
   <si>
@@ -1554,6 +1563,9 @@
     <t>Santilop493@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>ferjair71@gmail.com</t>
   </si>
   <si>
@@ -1627,6 +1639,9 @@
   </si>
   <si>
     <t>2722956004</t>
+  </si>
+  <si>
+    <t>9921059452</t>
   </si>
   <si>
     <t>2721397474</t>
@@ -4013,16 +4028,16 @@
         <v>380</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4042,19 +4057,19 @@
         <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4074,16 +4089,16 @@
         <v>382</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I4" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4103,19 +4118,19 @@
         <v>383</v>
       </c>
       <c r="F5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4135,19 +4150,19 @@
         <v>384</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I6" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4167,19 +4182,19 @@
         <v>385</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="J7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4199,7 +4214,7 @@
         <v>246</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G8" t="s">
         <v>190</v>
@@ -4231,19 +4246,19 @@
         <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4263,19 +4278,19 @@
         <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4295,10 +4310,10 @@
         <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4318,19 +4333,19 @@
         <v>389</v>
       </c>
       <c r="F12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H12" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J12" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4350,19 +4365,19 @@
         <v>390</v>
       </c>
       <c r="F13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I13" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4382,19 +4397,19 @@
         <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H14" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I14" t="s">
         <v>391</v>
       </c>
       <c r="J14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4414,19 +4429,19 @@
         <v>392</v>
       </c>
       <c r="F15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I15" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4446,16 +4461,16 @@
         <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H16" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I16" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="J16" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4475,13 +4490,13 @@
         <v>394</v>
       </c>
       <c r="F17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4501,16 +4516,16 @@
         <v>395</v>
       </c>
       <c r="F18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H18" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I18" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J18" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4530,19 +4545,19 @@
         <v>396</v>
       </c>
       <c r="F19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="J19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4562,19 +4577,19 @@
         <v>397</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I20" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J20" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4590,6 +4605,24 @@
       <c r="D21" t="s">
         <v>364</v>
       </c>
+      <c r="E21" t="s">
+        <v>398</v>
+      </c>
+      <c r="F21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G21" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" t="s">
+        <v>484</v>
+      </c>
+      <c r="I21" t="s">
+        <v>515</v>
+      </c>
+      <c r="J21" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
@@ -4605,22 +4638,22 @@
         <v>365</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I22" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J22" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4637,22 +4670,22 @@
         <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H23" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I23" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J23" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4669,22 +4702,22 @@
         <v>367</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H24" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I24" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J24" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4701,22 +4734,22 @@
         <v>368</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J25" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4733,22 +4766,22 @@
         <v>369</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H26" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I26" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J26" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4765,16 +4798,16 @@
         <v>370</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F27" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H27" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J27" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4791,22 +4824,22 @@
         <v>371</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G28" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H28" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I28" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J28" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4823,22 +4856,22 @@
         <v>372</v>
       </c>
       <c r="E29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F29" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G29" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H29" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I29" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J29" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4855,19 +4888,19 @@
         <v>373</v>
       </c>
       <c r="E30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H30" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J30" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4884,22 +4917,22 @@
         <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H31" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I31" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J31" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4916,16 +4949,16 @@
         <v>375</v>
       </c>
       <c r="E32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H32" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J32" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4942,22 +4975,22 @@
         <v>376</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G33" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H33" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I33" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J33" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4974,22 +5007,22 @@
         <v>377</v>
       </c>
       <c r="E34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H34" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J34" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5006,22 +5039,22 @@
         <v>378</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G35" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H35" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I35" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J35" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5038,22 +5071,22 @@
         <v>379</v>
       </c>
       <c r="E36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G36" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H36" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I36" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J36" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5115,28 +5148,28 @@
         <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F2" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="I2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="J2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5144,31 +5177,31 @@
         <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F3" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="G3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H3" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="I3" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="J3" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5176,31 +5209,31 @@
         <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D4" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E4" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G4" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H4" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="I4" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="J4" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5208,31 +5241,31 @@
         <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E5" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G5" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="I5" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="J5" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5240,25 +5273,25 @@
         <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
         <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E6" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H6" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5272,25 +5305,25 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="G7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="H7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="I7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="J7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5298,28 +5331,28 @@
         <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C8" t="s">
         <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E8" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F8" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="H8" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="I8" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="J8" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5330,25 +5363,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D9" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E9" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="F9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H9" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="J9" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5356,31 +5389,31 @@
         <v>19330051920195</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C10" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E10" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H10" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="I10" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="J10" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5391,28 +5424,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D11" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="E11" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="F11" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="G11" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H11" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="I11" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="J11" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5420,28 +5453,28 @@
         <v>19330051920196</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E12" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F12" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H12" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="I12" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="J12" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5452,28 +5485,28 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
         <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F13" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G13" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="H13" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="I13" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="J13" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5487,25 +5520,25 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F14" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G14" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H14" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="I14" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="J14" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5516,28 +5549,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D15" t="s">
         <v>369</v>
       </c>
       <c r="E15" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F15" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="G15" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="H15" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="I15" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="J15" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5548,28 +5581,28 @@
         <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D16" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E16" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F16" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G16" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H16" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="I16" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="J16" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5583,22 +5616,22 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E17" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F17" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="G17" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H17" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="J17" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5612,22 +5645,22 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="E18" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F18" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H18" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="I18" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="J18" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5641,22 +5674,22 @@
         <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="E19" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F19" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="H19" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="I19" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="J19" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5664,31 +5697,31 @@
         <v>19330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C20" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D20" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="E20" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F20" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="G20" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="H20" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="I20" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="J20" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5696,28 +5729,28 @@
         <v>19330051920207</v>
       </c>
       <c r="B21" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E21" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="F21" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="H21" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="I21" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="J21" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5725,7 +5758,7 @@
         <v>19330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5734,19 +5767,19 @@
         <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F22" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G22" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="H22" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="J22" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5760,25 +5793,25 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E23" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F23" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="G23" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="H23" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="I23" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="J23" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5792,25 +5825,25 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E24" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F24" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="G24" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="H24" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="I24" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="J24" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5818,7 +5851,7 @@
         <v>19330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -5827,19 +5860,19 @@
         <v>370</v>
       </c>
       <c r="E25" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F25" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H25" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="I25" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="J25" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5853,25 +5886,25 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E26" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="F26" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="G26" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H26" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="I26" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="J26" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5882,28 +5915,28 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D27" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E27" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="F27" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G27" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H27" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="I27" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="J27" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5914,22 +5947,22 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D28" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E28" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="F28" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H28" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="J28" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5943,25 +5976,25 @@
         <v>329</v>
       </c>
       <c r="D29" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E29" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="F29" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G29" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="H29" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="I29" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="J29" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5969,31 +6002,31 @@
         <v>19330051920218</v>
       </c>
       <c r="B30" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C30" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D30" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E30" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F30" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G30" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="H30" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="I30" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="J30" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6001,7 +6034,7 @@
         <v>19330051920220</v>
       </c>
       <c r="B31" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -6010,16 +6043,16 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="F31" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H31" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="J31" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6027,31 +6060,31 @@
         <v>19330051920439</v>
       </c>
       <c r="B32" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
       </c>
       <c r="D32" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E32" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F32" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="G32" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="H32" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="I32" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="J32" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6065,19 +6098,19 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E33" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F33" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H33" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="J33" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6085,28 +6118,28 @@
         <v>19330051920221</v>
       </c>
       <c r="B34" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C34" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D34" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E34" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F34" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="H34" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="I34" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="J34" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6114,28 +6147,28 @@
         <v>18330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="E35" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="F35" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="H35" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="I35" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="J35" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
